--- a/biology/Histoire de la zoologie et de la botanique/Tony_Norris/Tony_Norris.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Tony_Norris/Tony_Norris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tony Norris est un ornithologue britannique, né le 2 janvier 1917 à Cradley, Worcestershire et mort le 25 février 2005 à Worcester.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est président du British Trust for Ornithology de 1961 à 1964 et reçoit la médaille Tucker de cette société en 1959.
 Il est membre du conseil du Royal Society for the Protection of Birds dans les années 1950 et 1960 et à charge ses finances. Durant cette période, il convainc son organisation de quitter Londres  pour The Lodge à Sandy, Bedfordshire, il finance lui-même l’acquisition des locaux.
